--- a/CuentasUAT.xlsx
+++ b/CuentasUAT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florangel\git\TelecomProyectoFAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\Teco\TelecomProyectoFAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="389">
   <si>
     <t>Descripción</t>
   </si>
@@ -1184,7 +1184,16 @@
     <t>22222008</t>
   </si>
   <si>
-    <t>22222009</t>
+    <t>BANCO DE LA NACION ARGENTINA</t>
+  </si>
+  <si>
+    <t>5399099990081010</t>
+  </si>
+  <si>
+    <t>0619</t>
+  </si>
+  <si>
+    <t>159</t>
   </si>
 </sst>
 </file>
@@ -1222,14 +1231,17 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1259,6 +1271,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1417,7 +1430,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1486,7 +1499,6 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1494,6 +1506,11 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2046,7 +2063,7 @@
       <c r="A9" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>370</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -2072,13 +2089,13 @@
       <c r="A10" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="51" t="s">
         <v>372</v>
       </c>
     </row>
@@ -2086,13 +2103,13 @@
       <c r="A11" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="51" t="s">
         <v>372</v>
       </c>
     </row>
@@ -2580,10 +2597,10 @@
       <c r="A10" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>374</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -4463,10 +4480,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4559,16 +4576,16 @@
       <c r="A4" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>371</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="51" t="s">
         <v>372</v>
       </c>
     </row>
@@ -4576,10 +4593,10 @@
       <c r="A5" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>377</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>371</v>
       </c>
       <c r="D5" s="41" t="s">
@@ -4623,16 +4640,16 @@
       <c r="A6" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>378</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="51" t="s">
         <v>371</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="48" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4640,16 +4657,16 @@
       <c r="A7" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>379</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>371</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="48" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4657,10 +4674,10 @@
       <c r="A8" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="52" t="s">
         <v>380</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>371</v>
       </c>
       <c r="D8" s="45" t="s">
@@ -4677,13 +4694,13 @@
       <c r="A9" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>381</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>372</v>
       </c>
       <c r="E9" s="31"/>
@@ -4702,10 +4719,10 @@
       <c r="A10" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>382</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="51" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4713,10 +4730,10 @@
       <c r="A11" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="52" t="s">
         <v>383</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="51" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4724,10 +4741,10 @@
       <c r="A12" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="55" t="s">
         <v>384</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="51" t="s">
         <v>371</v>
       </c>
       <c r="D12" s="41" t="s">
@@ -4760,25 +4777,56 @@
       <c r="M12" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="N12" s="50" t="s">
+      <c r="N12" s="49" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
         <v>339</v>
       </c>
       <c r="B13" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>371</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="E13" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="N13" s="54" t="s">
         <v>371</v>
       </c>
-      <c r="D13" t="s">
+      <c r="O13" t="s">
         <v>338</v>
       </c>
-      <c r="H13" s="48"/>
-      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="43" t="s">
@@ -4805,11 +4853,14 @@
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="47"/>
     </row>
-    <row r="22" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="51"/>
+    <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="50"/>
+    </row>
+    <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="47"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/CuentasUAT.xlsx
+++ b/CuentasUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="13155" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="13155" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="390">
   <si>
     <t>Descripción</t>
   </si>
@@ -1070,9 +1070,6 @@
     <t>ht@gmail.com</t>
   </si>
   <si>
-    <t>55555550</t>
-  </si>
-  <si>
     <t>Habilitacion</t>
   </si>
   <si>
@@ -1151,9 +1148,6 @@
     <t>ceronewton@gmail.com</t>
   </si>
   <si>
-    <t>Cero</t>
-  </si>
-  <si>
     <t>Newton</t>
   </si>
   <si>
@@ -1163,28 +1157,46 @@
     <t>22222001</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Alta Linea Existe OfCom Debito</t>
+  </si>
+  <si>
+    <t>BBVA BANCO FRANCES SA</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>4487790000000018</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
     <t>22222002</t>
   </si>
   <si>
-    <t>22222003</t>
-  </si>
-  <si>
-    <t>22222004</t>
-  </si>
-  <si>
-    <t>22222005</t>
-  </si>
-  <si>
-    <t>22222006</t>
-  </si>
-  <si>
-    <t>22222007</t>
-  </si>
-  <si>
-    <t>22222008</t>
-  </si>
-  <si>
-    <t>22222009</t>
+    <t>2944675396</t>
+  </si>
+  <si>
+    <t>Dos</t>
+  </si>
+  <si>
+    <t>Linea Equipo Existe SPU</t>
+  </si>
+  <si>
+    <t>Galaxy - s8</t>
+  </si>
+  <si>
+    <t>ciudad autonoma de buenos aires</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1429,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1470,12 +1482,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1881,7 +1890,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2031,14 +2040,14 @@
         <v>114</v>
       </c>
       <c r="H8" t="s">
+        <v>367</v>
+      </c>
+      <c r="I8" t="s">
         <v>368</v>
-      </c>
-      <c r="I8" t="s">
-        <v>369</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="31"/>
-      <c r="L8" s="42"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
     </row>
@@ -2046,54 +2055,54 @@
       <c r="A9" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>370</v>
+      <c r="B9" s="49" t="s">
+        <v>369</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
         <v>114</v>
       </c>
       <c r="E9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F9" t="s">
         <v>368</v>
-      </c>
-      <c r="F9" t="s">
-        <v>369</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="31"/>
-      <c r="L9" s="42"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="D10" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="C10" s="52" t="s">
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>370</v>
       </c>
-      <c r="D10" s="52" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>372</v>
+      <c r="C11" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -2114,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2219,10 +2228,10 @@
         <v>114</v>
       </c>
       <c r="I2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" t="s">
         <v>368</v>
-      </c>
-      <c r="J2" t="s">
-        <v>369</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>320</v>
@@ -2236,7 +2245,7 @@
       <c r="N2" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="39" t="s">
         <v>308</v>
       </c>
       <c r="P2" s="31" t="s">
@@ -2272,10 +2281,10 @@
         <v>114</v>
       </c>
       <c r="I3" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" t="s">
         <v>368</v>
-      </c>
-      <c r="J3" t="s">
-        <v>369</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -2290,7 +2299,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D4">
         <v>52486595</v>
@@ -2337,10 +2346,10 @@
         <v>114</v>
       </c>
       <c r="I5" t="s">
+        <v>367</v>
+      </c>
+      <c r="J5" t="s">
         <v>368</v>
-      </c>
-      <c r="J5" t="s">
-        <v>369</v>
       </c>
       <c r="K5" s="32" t="s">
         <v>290</v>
@@ -2356,13 +2365,13 @@
         <v>306</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" t="s">
         <v>351</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>352</v>
-      </c>
-      <c r="D6" t="s">
-        <v>353</v>
       </c>
       <c r="E6" t="s">
         <v>276</v>
@@ -2377,15 +2386,15 @@
         <v>114</v>
       </c>
       <c r="I6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J6" t="s">
         <v>368</v>
-      </c>
-      <c r="J6" t="s">
-        <v>369</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="39" t="s">
         <v>308</v>
       </c>
       <c r="M6" s="31" t="s">
@@ -2397,16 +2406,16 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B7">
         <v>59886004</v>
       </c>
       <c r="C7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" t="s">
         <v>354</v>
-      </c>
-      <c r="D7" t="s">
-        <v>355</v>
       </c>
       <c r="E7" t="s">
         <v>276</v>
@@ -2415,7 +2424,7 @@
         <v>288</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H7" t="s">
         <v>114</v>
@@ -2424,7 +2433,7 @@
         <v>279</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>320</v>
@@ -2435,7 +2444,7 @@
       <c r="M7">
         <v>1524</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="38" t="s">
         <v>332</v>
       </c>
       <c r="O7" s="31" t="s">
@@ -2461,14 +2470,14 @@
       </c>
       <c r="V7" s="31"/>
       <c r="W7" s="31"/>
-      <c r="X7" s="44"/>
+      <c r="X7" s="41"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>341</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C8" t="s">
         <v>344</v>
@@ -2489,10 +2498,10 @@
         <v>114</v>
       </c>
       <c r="I8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J8" t="s">
         <v>368</v>
-      </c>
-      <c r="J8" t="s">
-        <v>369</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>320</v>
@@ -2510,10 +2519,10 @@
       </c>
       <c r="B9" s="32"/>
       <c r="C9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" t="s">
         <v>358</v>
-      </c>
-      <c r="D9" t="s">
-        <v>359</v>
       </c>
       <c r="E9" t="s">
         <v>276</v>
@@ -2528,10 +2537,10 @@
         <v>114</v>
       </c>
       <c r="I9" t="s">
+        <v>367</v>
+      </c>
+      <c r="J9" t="s">
         <v>368</v>
-      </c>
-      <c r="J9" t="s">
-        <v>369</v>
       </c>
       <c r="K9" s="31" t="s">
         <v>320</v>
@@ -2542,7 +2551,7 @@
       <c r="M9">
         <v>1524</v>
       </c>
-      <c r="N9" s="41" t="s">
+      <c r="N9" s="38" t="s">
         <v>332</v>
       </c>
       <c r="O9" s="31" t="s">
@@ -2572,7 +2581,7 @@
       <c r="W9" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="X9" s="44" t="s">
+      <c r="X9" s="41" t="s">
         <v>343</v>
       </c>
     </row>
@@ -2580,34 +2589,87 @@
       <c r="A10" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>374</v>
+      <c r="B10" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>386</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>276</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H10" t="s">
         <v>114</v>
       </c>
       <c r="I10" t="s">
+        <v>367</v>
+      </c>
+      <c r="J10" t="s">
         <v>368</v>
       </c>
-      <c r="J10" t="s">
-        <v>369</v>
-      </c>
-      <c r="K10" s="47"/>
+      <c r="K10" s="44"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>389</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4465,8 +4527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4522,21 +4584,21 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="38">
-        <v>46534534</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="B2" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="E2" s="39">
-        <v>1158423198</v>
+      <c r="E2" s="49" t="s">
+        <v>371</v>
       </c>
       <c r="F2">
         <v>1161138551</v>
@@ -4546,11 +4608,11 @@
       <c r="A3" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="36">
-        <v>23444455</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
       <c r="G3">
         <v>1161138552</v>
       </c>
@@ -4559,30 +4621,30 @@
       <c r="A4" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>370</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="D4" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>371</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>377</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>332</v>
       </c>
       <c r="E5" s="31" t="s">
@@ -4620,53 +4682,53 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>362</v>
-      </c>
-      <c r="E6" s="49" t="s">
+      <c r="B6" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>362</v>
-      </c>
-      <c r="E7" s="49" t="s">
+      <c r="B7" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>380</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="D8" s="45" t="s">
+      <c r="B8" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="43" t="s">
         <v>312</v>
       </c>
       <c r="F8" t="s">
@@ -4677,14 +4739,14 @@
       <c r="A9" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>381</v>
-      </c>
-      <c r="C9" s="52" t="s">
+      <c r="B9" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>371</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>372</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -4699,38 +4761,38 @@
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>382</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>371</v>
+      <c r="B10" s="50" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>383</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>371</v>
+      <c r="B11" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>384</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="D12" s="41" t="s">
+      <c r="B12" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>332</v>
       </c>
       <c r="E12" s="31" t="s">
@@ -4757,59 +4819,62 @@
       <c r="L12" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="M12" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="N12" s="50" t="s">
-        <v>367</v>
+      <c r="M12" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="N12" s="47" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>385</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>371</v>
+      <c r="B13" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>370</v>
       </c>
       <c r="D13" t="s">
         <v>338</v>
       </c>
-      <c r="H13" s="48"/>
+      <c r="H13" s="45"/>
       <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
-        <v>348</v>
+      <c r="A14" s="40" t="s">
+        <v>347</v>
       </c>
       <c r="B14" s="31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
-        <v>363</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>366</v>
-      </c>
-    </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E16" s="47"/>
-    </row>
-    <row r="22" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="44"/>
+    </row>
+    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="44"/>
+    </row>
+    <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="51"/>
+    <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="48"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/CuentasUAT.xlsx
+++ b/CuentasUAT.xlsx
@@ -1243,13 +1243,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1322,6 +1315,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FF333333"/>
@@ -1330,7 +1330,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1353,6 +1353,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1445,40 +1451,88 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1486,71 +1540,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1558,55 +1560,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1614,15 +1624,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1630,7 +1632,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1642,8 +1656,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1652,7 +1666,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -1724,10 +1738,10 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="4" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="15" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="15" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -1830,10 +1844,10 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="4" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="15" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="15" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -1905,10 +1919,10 @@
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="7"/>
@@ -1917,7 +1931,7 @@
       <c r="A5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -1928,7 +1942,7 @@
       <c r="A6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -1942,7 +1956,7 @@
       <c r="A7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -1965,10 +1979,10 @@
       <c r="D8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="0" t="s">
@@ -1980,20 +1994,20 @@
       <c r="I8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="0" t="s">
@@ -2005,38 +2019,38 @@
       <c r="F9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2078,14 +2092,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="28.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2148,7 +2162,7 @@
       <c r="A2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -2160,10 +2174,10 @@
       <c r="E2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="0" t="s">
@@ -2175,25 +2189,25 @@
       <c r="J2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2201,7 +2215,7 @@
       <c r="A3" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -2213,10 +2227,10 @@
       <c r="E3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
@@ -2228,10 +2242,10 @@
       <c r="J3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -2240,7 +2254,7 @@
       <c r="B4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>70</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -2255,10 +2269,10 @@
       <c r="G4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2266,7 +2280,7 @@
       <c r="A5" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -2278,10 +2292,10 @@
       <c r="E5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>76</v>
       </c>
       <c r="H5" s="0" t="s">
@@ -2293,20 +2307,20 @@
       <c r="J5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -2318,10 +2332,10 @@
       <c r="E6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="0" t="s">
@@ -2333,21 +2347,21 @@
       <c r="J6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -2362,10 +2376,10 @@
       <c r="E7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>85</v>
       </c>
       <c r="H7" s="0" t="s">
@@ -2374,10 +2388,10 @@
       <c r="I7" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>59</v>
       </c>
       <c r="L7" s="0" t="n">
@@ -2386,39 +2400,39 @@
       <c r="M7" s="0" t="n">
         <v>1524</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="21"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -2430,10 +2444,10 @@
       <c r="E8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>100</v>
       </c>
       <c r="H8" s="0" t="s">
@@ -2445,7 +2459,7 @@
       <c r="J8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="14" t="s">
         <v>59</v>
       </c>
       <c r="L8" s="0" t="n">
@@ -2456,10 +2470,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="0" t="s">
         <v>102</v>
       </c>
@@ -2469,10 +2483,10 @@
       <c r="E9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>100</v>
       </c>
       <c r="H9" s="0" t="s">
@@ -2484,7 +2498,7 @@
       <c r="J9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>59</v>
       </c>
       <c r="L9" s="0" t="n">
@@ -2493,60 +2507,60 @@
       <c r="M9" s="0" t="n">
         <v>1524</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="T9" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="U9" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="W9" s="13" t="s">
+      <c r="W9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="X9" s="21" t="s">
+      <c r="X9" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="0" t="s">
@@ -2558,58 +2572,58 @@
       <c r="J10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="23"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2650,30 +2664,30 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>127</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -2685,12 +2699,12 @@
       <c r="D2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>131</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -2699,15 +2713,15 @@
       <c r="C3" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -2716,44 +2730,44 @@
       <c r="C4" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="15" t="n">
+      <c r="D6" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2782,10 +2796,10 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="4" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="15" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="15" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -2860,11 +2874,11 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="5" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="15" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="15" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -2943,10 +2957,10 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="4" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="14" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="14" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -3029,7 +3043,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="40.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3045,22 +3059,22 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>150</v>
       </c>
       <c r="K1" s="5"/>
@@ -3081,572 +3095,572 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="27" t="n">
+      <c r="D2" s="26" t="n">
         <v>3413104291</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="29" t="n">
+      <c r="F2" s="28" t="n">
         <v>722341170199331</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="27" t="n">
+      <c r="D3" s="26" t="n">
         <v>3413104292</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="29" t="n">
+      <c r="F3" s="28" t="n">
         <v>722341170199332</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="26" t="n">
         <v>3413104293</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="29" t="n">
+      <c r="F4" s="28" t="n">
         <v>722341170199333</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="27" t="n">
+      <c r="D5" s="26" t="n">
         <v>3413104294</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="29" t="n">
+      <c r="F5" s="28" t="n">
         <v>722341170199334</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="26" t="n">
         <v>3413104295</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="29" t="n">
+      <c r="F6" s="28" t="n">
         <v>722341170199335</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="26" t="n">
         <v>3413104296</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="29" t="n">
+      <c r="F7" s="28" t="n">
         <v>722341170199336</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="26" t="n">
         <v>3413104297</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="29" t="n">
+      <c r="F8" s="28" t="n">
         <v>722341170199337</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="26" t="n">
         <v>3413104298</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F9" s="29" t="n">
+      <c r="F9" s="28" t="n">
         <v>722341170199338</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="26" t="n">
         <v>3413104299</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="29" t="n">
+      <c r="F10" s="28" t="n">
         <v>722341170199339</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="26" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="26" t="n">
         <v>3413104300</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="29" t="n">
+      <c r="F11" s="28" t="n">
         <v>722341170199340</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="26" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="26" t="n">
         <v>3413104301</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="F12" s="29" t="n">
+      <c r="F12" s="28" t="n">
         <v>722341170199341</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="27" t="n">
+      <c r="D13" s="26" t="n">
         <v>3413104302</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="29" t="n">
+      <c r="F13" s="28" t="n">
         <v>722341170199342</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="27" t="n">
+      <c r="D14" s="26" t="n">
         <v>3413104303</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="29" t="n">
+      <c r="F14" s="28" t="n">
         <v>722341170199343</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="27" t="n">
+      <c r="D15" s="26" t="n">
         <v>3413104304</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="29" t="n">
+      <c r="F15" s="28" t="n">
         <v>722341170199344</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="27" t="n">
+      <c r="D16" s="26" t="n">
         <v>3413104305</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="29" t="n">
+      <c r="F16" s="28" t="n">
         <v>722341170199345</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="27" t="n">
+      <c r="D17" s="26" t="n">
         <v>3413104306</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="F17" s="29" t="n">
+      <c r="F17" s="28" t="n">
         <v>722341170199346</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="26" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="27" t="n">
+      <c r="D18" s="26" t="n">
         <v>3413104307</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="29" t="n">
+      <c r="F18" s="28" t="n">
         <v>722341170199347</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="26" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="27" t="n">
+      <c r="D19" s="26" t="n">
         <v>3413104308</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="F19" s="29" t="n">
+      <c r="F19" s="28" t="n">
         <v>722341170199348</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="27" t="n">
+      <c r="D20" s="26" t="n">
         <v>3413104309</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="29" t="n">
+      <c r="F20" s="28" t="n">
         <v>722341170199349</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="26" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="27" t="n">
+      <c r="D21" s="26" t="n">
         <v>3413104310</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="F21" s="29" t="n">
+      <c r="F21" s="28" t="n">
         <v>722341170199350</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="15" t="n">
+      <c r="D22" s="14" t="n">
         <v>3413104311</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F22" s="29" t="n">
+      <c r="F22" s="28" t="n">
         <v>722341170199351</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I22" s="29" t="n">
+      <c r="I22" s="28" t="n">
         <v>722341170199353</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="15" t="n">
+      <c r="D23" s="14" t="n">
         <v>3413104312</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="F23" s="29" t="n">
+      <c r="F23" s="28" t="n">
         <v>722341170199352</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="I23" s="29" t="n">
+      <c r="I23" s="28" t="n">
         <v>722341170199354</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="14" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="15" t="n">
+      <c r="D24" s="14" t="n">
         <v>3413104313</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="F24" s="29" t="n">
+      <c r="F24" s="28" t="n">
         <v>722341170199355</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="15" t="n">
+      <c r="D25" s="14" t="n">
         <v>3413104314</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="29" t="n">
+      <c r="F25" s="28" t="n">
         <v>722341170199356</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3654,7 +3668,7 @@
       <c r="A26" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -3665,741 +3679,741 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="29" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="29" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="29" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="29" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="29" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="29" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="29" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="29" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="29" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="29" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="29" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="29" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="G40" s="30" t="s">
+      <c r="G40" s="29" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="29" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="29" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="G43" s="30" t="s">
+      <c r="G43" s="29" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="29" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="G45" s="30" t="s">
+      <c r="G45" s="29" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="G46" s="30" t="s">
+      <c r="G46" s="29" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="G47" s="30" t="s">
+      <c r="G47" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="H47" s="30" t="s">
+      <c r="H47" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="I47" s="30" t="s">
+      <c r="I47" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="J47" s="30" t="s">
+      <c r="J47" s="29" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="G48" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="H48" s="30" t="s">
+      <c r="H48" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="I48" s="30" t="s">
+      <c r="I48" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="J48" s="30" t="s">
+      <c r="J48" s="29" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="G49" s="30" t="s">
+      <c r="G49" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H49" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="I49" s="30" t="s">
+      <c r="I49" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="J49" s="30" t="s">
+      <c r="J49" s="29" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F50" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="G50" s="30" t="s">
+      <c r="G50" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="H50" s="30" t="s">
+      <c r="H50" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="I50" s="30" t="s">
+      <c r="I50" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="J50" s="30" t="s">
+      <c r="J50" s="29" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="G51" s="30" t="s">
+      <c r="G51" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="H51" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="I51" s="30" t="s">
+      <c r="I51" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="J51" s="30" t="s">
+      <c r="J51" s="29" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="F52" s="30" t="s">
+      <c r="F52" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="G52" s="30" t="s">
+      <c r="G52" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="H52" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="I52" s="30" t="s">
+      <c r="I52" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="J52" s="30" t="s">
+      <c r="J52" s="29" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="G53" s="30" t="s">
+      <c r="G53" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="H53" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="J53" s="30" t="s">
+      <c r="J53" s="29" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F54" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="G54" s="30" t="s">
+      <c r="G54" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="H54" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="I54" s="30" t="s">
+      <c r="I54" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="J54" s="30" t="s">
+      <c r="J54" s="29" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="F55" s="30" t="s">
+      <c r="F55" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="G55" s="30" t="s">
+      <c r="G55" s="29" t="s">
         <v>350</v>
       </c>
       <c r="H55" s="0" t="n">
@@ -4407,25 +4421,25 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E56" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="F56" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="G56" s="30" t="s">
+      <c r="G56" s="29" t="s">
         <v>354</v>
       </c>
       <c r="H56" s="0" t="n">
@@ -4433,63 +4447,63 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D57" s="30" t="n">
+      <c r="D57" s="29" t="n">
         <v>2213104354</v>
       </c>
-      <c r="E57" s="30" t="n">
+      <c r="E57" s="29" t="n">
         <v>895434</v>
       </c>
-      <c r="F57" s="30" t="n">
+      <c r="F57" s="29" t="n">
         <v>72234</v>
       </c>
-      <c r="G57" s="30" t="s">
+      <c r="G57" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="H57" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D58" s="30" t="n">
+      <c r="D58" s="29" t="n">
         <v>2213104355</v>
       </c>
-      <c r="E58" s="30" t="n">
+      <c r="E58" s="29" t="n">
         <v>895435</v>
       </c>
-      <c r="F58" s="30" t="n">
+      <c r="F58" s="29" t="n">
         <v>72235</v>
       </c>
-      <c r="G58" s="32" t="s">
+      <c r="G58" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="H58" s="33" t="s">
+      <c r="H58" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="I58" s="34" t="n">
+      <c r="I58" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="J58" s="33" t="s">
+      <c r="J58" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="K58" s="35" t="n">
+      <c r="K58" s="34" t="n">
         <v>523654</v>
       </c>
     </row>
@@ -4512,7 +4526,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4520,14 +4534,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="9" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="16" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="16" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -4541,10 +4555,10 @@
       <c r="C1" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>364</v>
       </c>
       <c r="F1" s="4"/>
@@ -4570,19 +4584,19 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="0" t="n">
@@ -4590,130 +4604,130 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="19"/>
       <c r="G3" s="0" t="n">
         <v>1161138552</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M5" s="13" t="n">
+      <c r="M5" s="12" t="n">
         <v>19784521</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="O5" s="13" t="n">
+      <c r="O5" s="12" t="n">
         <v>3463406620</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="41" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>373</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="42" t="s">
         <v>374</v>
       </c>
       <c r="F8" s="0" t="s">
@@ -4721,164 +4735,164 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="15"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="M12" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="21" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>384</v>
       </c>
       <c r="H13" s="44"/>
-      <c r="K13" s="13"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="45" t="s">
         <v>390</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="46" t="s">
         <v>392</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="45" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>42</v>
       </c>
     </row>

--- a/CuentasUAT.xlsx
+++ b/CuentasUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="421">
   <si>
     <t>Descripción</t>
   </si>
@@ -1052,9 +1052,6 @@
     <t>Alta Linea Equipo New OfCom</t>
   </si>
   <si>
-    <t>Homero Thompson</t>
-  </si>
-  <si>
     <t>Homero</t>
   </si>
   <si>
@@ -1103,9 +1100,6 @@
     <t>Codi Aleatorio</t>
   </si>
   <si>
-    <t>15907314</t>
-  </si>
-  <si>
     <t>9900000766810001</t>
   </si>
   <si>
@@ -1121,9 +1115,6 @@
     <t>0818</t>
   </si>
   <si>
-    <t>Emma Valentina</t>
-  </si>
-  <si>
     <t>Río Negro</t>
   </si>
   <si>
@@ -1181,9 +1172,6 @@
     <t>2944675396</t>
   </si>
   <si>
-    <t>Dos</t>
-  </si>
-  <si>
     <t>Linea Equipo Existe SPU</t>
   </si>
   <si>
@@ -1263,6 +1251,45 @@
   </si>
   <si>
     <t>Galaxy s8 - Negro</t>
+  </si>
+  <si>
+    <t>Cosme Fulanito</t>
+  </si>
+  <si>
+    <t>22222009</t>
+  </si>
+  <si>
+    <t>Nueve</t>
+  </si>
+  <si>
+    <t>Nueve Newton</t>
+  </si>
+  <si>
+    <t>22222010</t>
+  </si>
+  <si>
+    <t>Amigos Modificacion</t>
+  </si>
+  <si>
+    <t>1161138553</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Amigos Baja</t>
+  </si>
+  <si>
+    <t>2944675418</t>
+  </si>
+  <si>
+    <t>2944675419</t>
+  </si>
+  <si>
+    <t>SAN ISIDRO</t>
+  </si>
+  <si>
+    <t>Villa martelli</t>
   </si>
 </sst>
 </file>
@@ -2113,10 +2140,10 @@
         <v>114</v>
       </c>
       <c r="H8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="31"/>
@@ -2129,19 +2156,19 @@
         <v>303</v>
       </c>
       <c r="B9" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>367</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>370</v>
       </c>
       <c r="D9" t="s">
         <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -2155,13 +2182,13 @@
         <v>304</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2169,13 +2196,13 @@
         <v>305</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -2198,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2301,10 +2328,10 @@
         <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>319</v>
@@ -2354,10 +2381,10 @@
         <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -2372,7 +2399,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D4">
         <v>52486595</v>
@@ -2419,10 +2446,10 @@
         <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K5" s="32" t="s">
         <v>290</v>
@@ -2438,13 +2465,13 @@
         <v>306</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" t="s">
         <v>348</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>349</v>
-      </c>
-      <c r="D6" t="s">
-        <v>350</v>
       </c>
       <c r="E6" t="s">
         <v>276</v>
@@ -2459,10 +2486,10 @@
         <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>307</v>
@@ -2479,16 +2506,16 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B7">
         <v>59886004</v>
       </c>
       <c r="C7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" t="s">
         <v>351</v>
-      </c>
-      <c r="D7" t="s">
-        <v>352</v>
       </c>
       <c r="E7" t="s">
         <v>276</v>
@@ -2497,7 +2524,7 @@
         <v>288</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H7" t="s">
         <v>114</v>
@@ -2506,7 +2533,7 @@
         <v>279</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>319</v>
@@ -2550,13 +2577,13 @@
         <v>340</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" t="s">
         <v>342</v>
-      </c>
-      <c r="D8" t="s">
-        <v>343</v>
       </c>
       <c r="E8" t="s">
         <v>276</v>
@@ -2565,16 +2592,16 @@
         <v>278</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H8" t="s">
         <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>319</v>
@@ -2582,80 +2609,82 @@
       <c r="L8">
         <v>1524</v>
       </c>
-      <c r="M8">
-        <v>1524</v>
+      <c r="M8" s="31" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="B9" s="32"/>
+        <v>384</v>
+      </c>
+      <c r="B9" t="s">
+        <v>354</v>
+      </c>
       <c r="C9" t="s">
         <v>355</v>
       </c>
       <c r="D9" t="s">
-        <v>356</v>
-      </c>
-      <c r="E9" t="s">
         <v>276</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="F9" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="J9" t="s">
         <v>114</v>
       </c>
-      <c r="I9" t="s">
-        <v>365</v>
-      </c>
-      <c r="J9" t="s">
-        <v>366</v>
-      </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" t="s">
+        <v>362</v>
+      </c>
+      <c r="L9" t="s">
+        <v>363</v>
+      </c>
+      <c r="M9" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>1544</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>1524</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="P9" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="O9" s="31" t="s">
+      <c r="Q9" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="R9" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="S9" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="R9" s="31" t="s">
+      <c r="T9" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="S9" s="31" t="s">
+      <c r="U9" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="T9" s="31" t="s">
+      <c r="V9" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="W9" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="V9" s="31" t="s">
+      <c r="X9" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="W9" s="31" t="s">
+      <c r="Y9" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="X9" s="41" t="s">
-        <v>341</v>
+      <c r="Z9" s="41" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.35">
@@ -2663,108 +2692,110 @@
         <v>339</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>276</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="H10" t="s">
+        <v>367</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="I10" t="s">
-        <v>365</v>
-      </c>
       <c r="J10" t="s">
-        <v>366</v>
-      </c>
-      <c r="K10" s="44"/>
+        <v>362</v>
+      </c>
+      <c r="K10" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>330</v>
       </c>
       <c r="G11" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="J11" s="31" t="s">
         <v>378</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>381</v>
       </c>
       <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C12" t="s">
         <v>114</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>279</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>330</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2773,33 +2804,33 @@
         <v>2019</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>276</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>114</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
@@ -2818,13 +2849,13 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" t="s">
         <v>342</v>
-      </c>
-      <c r="C15" t="s">
-        <v>343</v>
       </c>
       <c r="D15" t="s">
         <v>276</v>
@@ -2833,19 +2864,19 @@
         <v>278</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G15" t="s">
         <v>114</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>279</v>
+        <v>387</v>
+      </c>
+      <c r="I15" t="s">
+        <v>362</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>319</v>
@@ -2868,7 +2899,7 @@
     <hyperlink ref="G5" r:id="rId4"/>
     <hyperlink ref="G6" r:id="rId5"/>
     <hyperlink ref="G8" r:id="rId6"/>
-    <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId7"/>
     <hyperlink ref="G7" r:id="rId8"/>
     <hyperlink ref="G10" r:id="rId9"/>
     <hyperlink ref="G14" r:id="rId10"/>
@@ -4718,8 +4749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4780,30 +4811,35 @@
         <v>285</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>297</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F2">
         <v>1161138551</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>285</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="D3" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>366</v>
+      </c>
       <c r="G3">
         <v>1161138552</v>
       </c>
@@ -4813,16 +4849,16 @@
         <v>295</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>297</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4830,16 +4866,16 @@
         <v>300</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>330</v>
@@ -4848,7 +4884,7 @@
         <v>336</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>333</v>
@@ -4869,7 +4905,7 @@
         <v>299</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4877,16 +4913,16 @@
         <v>313</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4894,16 +4930,16 @@
         <v>314</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4911,10 +4947,10 @@
         <v>315</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>311</v>
@@ -4931,13 +4967,13 @@
         <v>317</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -4956,21 +4992,27 @@
         <v>318</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>368</v>
+        <v>279</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="E10" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4978,43 +5020,46 @@
         <v>327</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="F12" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="G12" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="H12" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="H12" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>333</v>
+      <c r="I12" s="51" t="s">
+        <v>399</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="L12" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="M12" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="M12" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="N12" s="46" t="s">
+      <c r="N12" s="49" t="s">
         <v>364</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5022,19 +5067,19 @@
         <v>338</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>330</v>
@@ -5043,25 +5088,25 @@
         <v>336</v>
       </c>
       <c r="I13" s="51" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M13" s="31" t="s">
         <v>301</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="O13" s="48" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P13" t="s">
         <v>337</v>
@@ -5069,29 +5114,29 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C15" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>361</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B16">
         <v>22222000</v>
@@ -5100,22 +5145,22 @@
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B17">
         <v>22222000</v>
       </c>
-      <c r="C17" t="s">
-        <v>368</v>
+      <c r="C17">
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>330</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -5124,7 +5169,7 @@
         <v>2019</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K17" t="s">
         <v>301</v>
@@ -5133,10 +5178,90 @@
         <v>19784521</v>
       </c>
       <c r="M17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N17">
-        <v>3463406620</v>
+        <v>2944675417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18">
+        <v>22222000</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="B19">
+        <v>22222000</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>417</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="B20">
+        <v>22222200</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="B21">
+        <v>22222200</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/CuentasUAT.xlsx
+++ b/CuentasUAT.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="424">
   <si>
     <t>Descripción</t>
   </si>
@@ -1290,6 +1290,15 @@
   </si>
   <si>
     <t>Villa martelli</t>
+  </si>
+  <si>
+    <t>Reintegros</t>
+  </si>
+  <si>
+    <t>Modificacion De Datos</t>
+  </si>
+  <si>
+    <t>Trivias Y Suscripciones</t>
   </si>
 </sst>
 </file>
@@ -4747,10 +4756,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5265,10 +5274,30 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="B22">
+        <v>22222201</v>
+      </c>
       <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="B23">
+        <v>22222200</v>
+      </c>
       <c r="C23" s="47"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="B24">
+        <v>22222200</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/CuentasUAT.xlsx
+++ b/CuentasUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -1256,12 +1256,6 @@
     <t>Cosme Fulanito</t>
   </si>
   <si>
-    <t>22222009</t>
-  </si>
-  <si>
-    <t>Nueve</t>
-  </si>
-  <si>
     <t>Nueve Newton</t>
   </si>
   <si>
@@ -1299,6 +1293,12 @@
   </si>
   <si>
     <t>Trivias Y Suscripciones</t>
+  </si>
+  <si>
+    <t>22222014</t>
+  </si>
+  <si>
+    <t>Catorce</t>
   </si>
 </sst>
 </file>
@@ -2234,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2604,7 +2604,7 @@
         <v>343</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>387</v>
       </c>
       <c r="I8" t="s">
         <v>362</v>
@@ -2701,10 +2701,10 @@
         <v>339</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>368</v>
@@ -4758,8 +4758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4922,10 +4922,10 @@
         <v>313</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>357</v>
@@ -4939,10 +4939,10 @@
         <v>314</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>357</v>
@@ -5007,10 +5007,10 @@
         <v>279</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5195,7 +5195,7 @@
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B18">
         <v>22222000</v>
@@ -5210,12 +5210,12 @@
         <v>366</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B19">
         <v>22222000</v>
@@ -5227,15 +5227,15 @@
         <v>297</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B20">
         <v>22222200</v>
@@ -5247,15 +5247,15 @@
         <v>297</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B21">
         <v>22222200</v>
@@ -5267,7 +5267,7 @@
         <v>297</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>376</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B22">
         <v>22222201</v>
@@ -5284,7 +5284,7 @@
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B23">
         <v>22222200</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B24">
         <v>22222200</v>

--- a/CuentasUAT.xlsx
+++ b/CuentasUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -2234,7 +2234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -4758,8 +4758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5238,7 +5238,7 @@
         <v>414</v>
       </c>
       <c r="B20">
-        <v>22222200</v>
+        <v>22222000</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>365</v>
@@ -5258,7 +5258,7 @@
         <v>414</v>
       </c>
       <c r="B21">
-        <v>22222200</v>
+        <v>22222000</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>365</v>
@@ -5278,7 +5278,7 @@
         <v>421</v>
       </c>
       <c r="B22">
-        <v>22222201</v>
+        <v>22222001</v>
       </c>
       <c r="C22" s="14"/>
     </row>
@@ -5287,7 +5287,7 @@
         <v>419</v>
       </c>
       <c r="B23">
-        <v>22222200</v>
+        <v>22222000</v>
       </c>
       <c r="C23" s="47"/>
     </row>
@@ -5296,7 +5296,7 @@
         <v>420</v>
       </c>
       <c r="B24">
-        <v>22222200</v>
+        <v>22222000</v>
       </c>
     </row>
   </sheetData>

--- a/CuentasUAT.xlsx
+++ b/CuentasUAT.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="424">
   <si>
     <t>Descripción</t>
   </si>
@@ -4759,7 +4759,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5147,8 +5147,8 @@
       <c r="A16" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="B16">
-        <v>22222000</v>
+      <c r="B16" s="49" t="s">
+        <v>364</v>
       </c>
       <c r="E16" s="44"/>
     </row>
@@ -5156,8 +5156,8 @@
       <c r="A17" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="B17">
-        <v>22222000</v>
+      <c r="B17" s="49" t="s">
+        <v>364</v>
       </c>
       <c r="C17">
         <v>100</v>
@@ -5197,8 +5197,8 @@
       <c r="A18" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="B18">
-        <v>22222000</v>
+      <c r="B18" s="49" t="s">
+        <v>364</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>365</v>
@@ -5217,8 +5217,8 @@
       <c r="A19" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="B19">
-        <v>22222000</v>
+      <c r="B19" s="49" t="s">
+        <v>364</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>365</v>
@@ -5237,8 +5237,8 @@
       <c r="A20" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="B20">
-        <v>22222000</v>
+      <c r="B20" s="49" t="s">
+        <v>364</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>365</v>
@@ -5257,8 +5257,8 @@
       <c r="A21" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="B21">
-        <v>22222000</v>
+      <c r="B21" s="49" t="s">
+        <v>364</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>365</v>
@@ -5277,8 +5277,8 @@
       <c r="A22" s="40" t="s">
         <v>421</v>
       </c>
-      <c r="B22">
-        <v>22222001</v>
+      <c r="B22" s="32" t="s">
+        <v>370</v>
       </c>
       <c r="C22" s="14"/>
     </row>
@@ -5286,8 +5286,8 @@
       <c r="A23" s="40" t="s">
         <v>419</v>
       </c>
-      <c r="B23">
-        <v>22222000</v>
+      <c r="B23" s="49" t="s">
+        <v>364</v>
       </c>
       <c r="C23" s="47"/>
     </row>
@@ -5295,8 +5295,8 @@
       <c r="A24" s="40" t="s">
         <v>420</v>
       </c>
-      <c r="B24">
-        <v>22222000</v>
+      <c r="B24" s="49" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/CuentasUAT.xlsx
+++ b/CuentasUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="424">
   <si>
     <t>Descripción</t>
   </si>
@@ -2234,7 +2234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -4758,8 +4758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5147,8 +5147,8 @@
       <c r="A16" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="B16" s="49" t="s">
-        <v>364</v>
+      <c r="B16">
+        <v>22222000</v>
       </c>
       <c r="E16" s="44"/>
     </row>
@@ -5156,8 +5156,8 @@
       <c r="A17" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>364</v>
+      <c r="B17">
+        <v>22222000</v>
       </c>
       <c r="C17">
         <v>100</v>
@@ -5197,8 +5197,8 @@
       <c r="A18" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="B18" s="49" t="s">
-        <v>364</v>
+      <c r="B18">
+        <v>22222000</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>365</v>
@@ -5217,8 +5217,8 @@
       <c r="A19" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>364</v>
+      <c r="B19">
+        <v>22222000</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>365</v>
@@ -5237,8 +5237,8 @@
       <c r="A20" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>364</v>
+      <c r="B20">
+        <v>22222200</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>365</v>
@@ -5257,8 +5257,8 @@
       <c r="A21" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="B21" s="49" t="s">
-        <v>364</v>
+      <c r="B21">
+        <v>22222200</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>365</v>
@@ -5277,8 +5277,8 @@
       <c r="A22" s="40" t="s">
         <v>421</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>370</v>
+      <c r="B22">
+        <v>22222201</v>
       </c>
       <c r="C22" s="14"/>
     </row>
@@ -5286,8 +5286,8 @@
       <c r="A23" s="40" t="s">
         <v>419</v>
       </c>
-      <c r="B23" s="49" t="s">
-        <v>364</v>
+      <c r="B23">
+        <v>22222200</v>
       </c>
       <c r="C23" s="47"/>
     </row>
@@ -5295,8 +5295,8 @@
       <c r="A24" s="40" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>364</v>
+      <c r="B24">
+        <v>22222200</v>
       </c>
     </row>
   </sheetData>

--- a/CuentasUAT.xlsx
+++ b/CuentasUAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="13152" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="438">
   <si>
     <t>Descripción</t>
   </si>
@@ -1299,6 +1299,48 @@
   </si>
   <si>
     <t>Catorce</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Tarjeta</t>
+  </si>
+  <si>
+    <t>N° Tarjeta</t>
+  </si>
+  <si>
+    <t>Mes Venc</t>
+  </si>
+  <si>
+    <t>Año Venc</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Tipo de doc</t>
+  </si>
+  <si>
+    <t>N° documento</t>
+  </si>
+  <si>
+    <t>Titular</t>
+  </si>
+  <si>
+    <t>Promo</t>
+  </si>
+  <si>
+    <t>Cuota</t>
+  </si>
+  <si>
+    <t>Renovacion Cuota S/Saldo Con Tarj</t>
+  </si>
+  <si>
+    <t>4507990000001</t>
+  </si>
+  <si>
+    <t>19784521</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1579,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1612,6 +1654,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1996,15 +2039,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
     <col min="4" max="14" width="11.5546875" customWidth="1"/>
@@ -2024,17 +2067,39 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="E1" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>434</v>
+      </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -2212,6 +2277,53 @@
       </c>
       <c r="D11" s="48" t="s">
         <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2234,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4758,8 +4870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
